--- a/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64563A8C-9FAB-48D9-99B3-0D9C8A436503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA2DA4C-E82E-4ABA-96F7-8DCFB1124E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9F28CED2-6E9A-49C8-AC9F-E2CD1C0427BB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{107B1B4F-84D6-4570-B8E2-AA8BC54D68A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>92,72%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>95,11%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>7,28%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,120 +357,6 @@
   </si>
   <si>
     <t>7,85%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
   </si>
   <si>
     <t>92,8%</t>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209A58CA-5499-44A3-A659-30110FCBE6A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFDDFEE-35E6-4531-BEBC-EEA115D66706}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>231972</v>
+        <v>12062</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +929,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>181448</v>
+        <v>14305</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>585</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>413420</v>
+        <v>26366</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>18214</v>
+        <v>636</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -980,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>10904</v>
+        <v>2482</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>29118</v>
+        <v>3119</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1016,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1031,10 +1031,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1046,10 +1046,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>161147</v>
+        <v>231972</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1239,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="I10" s="7">
-        <v>165786</v>
+        <v>181448</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1254,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>449</v>
+        <v>585</v>
       </c>
       <c r="N10" s="7">
-        <v>326933</v>
+        <v>413420</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1275,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>13869</v>
+        <v>18214</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1290,10 +1290,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>5541</v>
+        <v>10904</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1305,10 +1305,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>19410</v>
+        <v>29118</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1326,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1341,10 +1341,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171327</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1356,10 +1356,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346343</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1379,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="D13" s="7">
-        <v>12062</v>
+        <v>161788</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1394,10 +1394,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="I13" s="7">
-        <v>14305</v>
+        <v>151740</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1409,10 +1409,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="N13" s="7">
-        <v>26366</v>
+        <v>313527</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1430,10 +1430,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>636</v>
+        <v>7261</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1445,10 +1445,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>2482</v>
+        <v>16162</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1460,10 +1460,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N14" s="7">
-        <v>3119</v>
+        <v>23424</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>169049</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1496,10 +1496,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1511,10 +1511,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>336951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D16" s="7">
-        <v>161788</v>
+        <v>161147</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1549,10 +1549,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="I16" s="7">
-        <v>151740</v>
+        <v>165786</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1564,10 +1564,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="N16" s="7">
-        <v>313527</v>
+        <v>326933</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1585,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>7261</v>
+        <v>13869</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1600,10 +1600,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>16162</v>
+        <v>5541</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1615,10 +1615,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>23424</v>
+        <v>19410</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1636,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>169049</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1651,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171327</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1666,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="N18" s="7">
-        <v>336951</v>
+        <v>346343</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>884</v>
@@ -1749,7 +1749,7 @@
         <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>116</v>

--- a/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA2DA4C-E82E-4ABA-96F7-8DCFB1124E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C211B6B7-64B8-4B4E-9326-AFE0291C631D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{107B1B4F-84D6-4570-B8E2-AA8BC54D68A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4782B9C-A4E2-40AD-B0AB-07D2E3C29D71}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
-  <si>
-    <t>Menores según si padecen otros en 2023 (Tasa respuesta: 99,84%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+  <si>
+    <t>Menores según si padecen otros problemas crónicos de salud en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,313 +128,286 @@
     <t>96,36%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>93,42%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>90,65%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>91,73%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -511,39 +514,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -595,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -706,13 +709,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -721,6 +717,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -785,19 +788,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFDDFEE-35E6-4531-BEBC-EEA115D66706}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C61A788-841C-4FAA-83D1-312242FDA7FF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -914,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12062</v>
+        <v>636</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>14305</v>
+        <v>2482</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>26366</v>
+        <v>3119</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +988,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>636</v>
+        <v>12062</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -980,10 +1003,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>2482</v>
+        <v>14305</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +1018,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>3119</v>
+        <v>26366</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1069,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>102589</v>
+        <v>12007</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1084,10 +1107,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>97657</v>
+        <v>6238</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1099,10 +1122,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>200245</v>
+        <v>18245</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1120,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7">
-        <v>12007</v>
+        <v>102589</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1135,10 +1158,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>6238</v>
+        <v>97657</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1150,10 +1173,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="N8" s="7">
-        <v>18245</v>
+        <v>200245</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1224,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>231972</v>
+        <v>18214</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1262,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>181448</v>
+        <v>10904</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1277,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>585</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>413420</v>
+        <v>29118</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1275,10 +1298,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>18214</v>
+        <v>231972</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1290,10 +1313,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="I11" s="7">
-        <v>10904</v>
+        <v>181448</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1305,10 +1328,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>585</v>
       </c>
       <c r="N11" s="7">
-        <v>29118</v>
+        <v>413420</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1379,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>161788</v>
+        <v>7261</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1394,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>151740</v>
+        <v>16162</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1409,10 +1432,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>419</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>313527</v>
+        <v>23424</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1430,10 +1453,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>7261</v>
+        <v>161788</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1445,10 +1468,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>16162</v>
+        <v>151740</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1460,10 +1483,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>23424</v>
+        <v>313527</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1534,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>161147</v>
+        <v>13869</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1549,10 +1572,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>165786</v>
+        <v>5541</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1564,10 +1587,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>449</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>326933</v>
+        <v>19410</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1585,10 +1608,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D17" s="7">
-        <v>13869</v>
+        <v>161147</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1600,10 +1623,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="I17" s="7">
-        <v>5541</v>
+        <v>165786</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1615,10 +1638,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>28</v>
+        <v>449</v>
       </c>
       <c r="N17" s="7">
-        <v>19410</v>
+        <v>326933</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1689,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>908</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>669558</v>
+        <v>51987</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1701,28 +1724,28 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>884</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>610935</v>
+        <v>41329</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>1792</v>
+        <v>125</v>
       </c>
       <c r="N19" s="7">
-        <v>1280492</v>
+        <v>93316</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -1740,40 +1763,40 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>68</v>
+        <v>908</v>
       </c>
       <c r="D20" s="7">
-        <v>51987</v>
+        <v>669558</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>57</v>
+        <v>884</v>
       </c>
       <c r="I20" s="7">
-        <v>41329</v>
+        <v>610935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
-        <v>125</v>
+        <v>1792</v>
       </c>
       <c r="N20" s="7">
-        <v>93316</v>
+        <v>1280492</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -1834,6 +1857,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C211B6B7-64B8-4B4E-9326-AFE0291C631D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E974784D-11EB-4195-AE30-44F9598C456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4782B9C-A4E2-40AD-B0AB-07D2E3C29D71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1C1903C-AE94-49EA-A8A2-52AC1329DCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si padecen otros problemas crónicos de salud en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,19%</t>
+    <t>25,44%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>94,99%</t>
   </si>
   <si>
-    <t>77,81%</t>
+    <t>74,56%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,91 +113,91 @@
     <t>85,21%</t>
   </si>
   <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>5,67%</t>
@@ -206,31 +206,31 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>10,34%</t>
+    <t>10,92%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>89,66%</t>
+    <t>89,08%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -239,13 +239,13 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -254,157 +254,163 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>7,41%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C61A788-841C-4FAA-83D1-312242FDA7FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A85217-6374-4B96-B947-2E004C1B70AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1736,10 +1742,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>125</v>
@@ -1748,13 +1754,13 @@
         <v>93316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>669558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>884</v>
@@ -1784,13 +1790,13 @@
         <v>610935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1792</v>
@@ -1799,13 +1805,13 @@
         <v>1280492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E974784D-11EB-4195-AE30-44F9598C456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC49EE2-CCE0-4F3A-A825-34577F984977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1C1903C-AE94-49EA-A8A2-52AC1329DCCE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{BE922320-085C-4E4B-8CA7-BA1DF85F2B43}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si padecen otros problemas crónicos de salud en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>94,44%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A85217-6374-4B96-B947-2E004C1B70AD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CAAEA9-A2A5-44C6-98FF-7017A34CD31C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>636</v>
+        <v>8741</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>2482</v>
+        <v>16699</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>3119</v>
+        <v>25440</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>12062</v>
+        <v>108539</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
-        <v>14305</v>
+        <v>123713</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="N5" s="7">
-        <v>26366</v>
+        <v>232253</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>12007</v>
+        <v>13987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>6238</v>
+        <v>18605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>18245</v>
+        <v>32593</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="D8" s="7">
-        <v>102589</v>
+        <v>176525</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>97657</v>
+        <v>236430</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>297</v>
+        <v>585</v>
       </c>
       <c r="N8" s="7">
-        <v>200245</v>
+        <v>412955</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>18214</v>
+        <v>15734</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>10904</v>
+        <v>7465</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>29118</v>
+        <v>23199</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>231972</v>
+        <v>173851</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="I11" s="7">
-        <v>181448</v>
+        <v>173585</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>585</v>
+        <v>419</v>
       </c>
       <c r="N11" s="7">
-        <v>413420</v>
+        <v>347436</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>181050</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>370635</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>7261</v>
+        <v>5342</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>16162</v>
+        <v>14858</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>23424</v>
+        <v>20200</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>161788</v>
+        <v>162012</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>151740</v>
+        <v>166380</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>313527</v>
+        <v>328392</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>169049</v>
+        <v>167354</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>336951</v>
+        <v>348592</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>13869</v>
+        <v>43804</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>68</v>
+      </c>
+      <c r="I16" s="7">
+        <v>57628</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5541</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>125</v>
+      </c>
+      <c r="N16" s="7">
+        <v>101432</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>28</v>
-      </c>
-      <c r="N16" s="7">
-        <v>19410</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>218</v>
+        <v>884</v>
       </c>
       <c r="D17" s="7">
-        <v>161147</v>
+        <v>620928</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>908</v>
+      </c>
+      <c r="I17" s="7">
+        <v>700108</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>231</v>
-      </c>
-      <c r="I17" s="7">
-        <v>165786</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1792</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1321036</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>449</v>
-      </c>
-      <c r="N17" s="7">
-        <v>326933</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>664732</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>171327</v>
+        <v>757736</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>346343</v>
+        <v>1422468</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>68</v>
-      </c>
-      <c r="D19" s="7">
-        <v>51987</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>57</v>
-      </c>
-      <c r="I19" s="7">
-        <v>41329</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>125</v>
-      </c>
-      <c r="N19" s="7">
-        <v>93316</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>908</v>
-      </c>
-      <c r="D20" s="7">
-        <v>669558</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>884</v>
-      </c>
-      <c r="I20" s="7">
-        <v>610935</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1792</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1280492</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>721545</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>941</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652264</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1373808</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
